--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Ports" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="ACAS Plugins" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="res">#REF!</definedName>
@@ -32,14 +33,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="f9iQN+L5mvXBDWpP+ortIL1gUkhr2xyrbRGUMgfM290="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="n5yvxNAfY6MLFf/08XGp3Ls0/m0Rd42XI03gEOO4fvw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="289">
   <si>
     <t>Protocol</t>
   </si>
@@ -580,12 +581,405 @@
   <si>
     <t>MOM-Clear</t>
   </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Tenable App</t>
+  </si>
+  <si>
+    <t>Plugin Type</t>
+  </si>
+  <si>
+    <t>Plugin ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Nessus</t>
+  </si>
+  <si>
+    <t>Successful Login (Windows)</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Log In Possible</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Registry Remotely Accessible</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Installed Software Enumeration (credentialed check)</t>
+  </si>
+  <si>
+    <t>WMI (Windows Management Instrumentation) Available</t>
+  </si>
+  <si>
+    <t>Successful Login (Linux)</t>
+  </si>
+  <si>
+    <t>Authenticated Check: OS Name and Installed Package Enumeration</t>
+  </si>
+  <si>
+    <t>Software Enumeration (SSH)</t>
+  </si>
+  <si>
+    <t>Firewall Detection</t>
+  </si>
+  <si>
+    <t>Target Credential Issues by Authentication Protocol - No Issues Found</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Liberation Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Successful</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Constantia"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Liberation Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Constantia"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Liberation Sans"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(Win &amp; Lin)</t>
+    </r>
+  </si>
+  <si>
+    <t>Target Credential Status by Authentication Protocol - Valid Credentials Provided</t>
+  </si>
+  <si>
+    <t>Successful Login (Win &amp; Lin)</t>
+  </si>
+  <si>
+    <t>Integration Credential Status by Authentication Protocol - Valid Credentials Provided</t>
+  </si>
+  <si>
+    <t>Login Failure (Win &amp; Lin)</t>
+  </si>
+  <si>
+    <t>Target Credential Status by Authentication Protocol - No Credentials Provided</t>
+  </si>
+  <si>
+    <t>Target Credential Status by Authentication Protocol - Failure for Provided Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Credential Issues by Authentication Protocol - Insufficient Privilege </t>
+  </si>
+  <si>
+    <t>Target Credential Issues by Authentication Protocol - Intermittent Authentication Failure</t>
+  </si>
+  <si>
+    <t>Integration Credential Status by Authentication Protocol -Failure for Provided Credentials</t>
+  </si>
+  <si>
+    <t>Authentication Failure - Local Checks Not Run</t>
+  </si>
+  <si>
+    <t>Nessus Windows Scan Not Performed with Admin Privileges</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Registry Not Fully Accessible Detection</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Registry: Nessus Cannot Access the Windows Registry</t>
+  </si>
+  <si>
+    <t>Database Authentication Failure(s) for Provided Credentials</t>
+  </si>
+  <si>
+    <t>HTTP Login Page</t>
+  </si>
+  <si>
+    <t>OS Security Patch Assessment Failed</t>
+  </si>
+  <si>
+    <t>Note: This indicates Tenable Nessus is unable to connect to the
+system, usually for one of the following reasons:
+l Nessus is unable to connect due to network issues
+l A network or host-based firewall is blocking the
+connection attempts
+l Due to network latency, a timeout is reached before
+the connection occurs
+l The user that started the scan does not have
+permission to scan the given host and/or port.
+Nessus users have no restrictions by default, so this
+only happens if an administrator puts a restriction
+on a user.
+l Nessus has too many open sockets during a scan. If
+this happens the nessusd.dump or
+nessusd.messages indicate the error.</t>
+  </si>
+  <si>
+    <t>Nessus Scan Information (All Scans)</t>
+  </si>
+  <si>
+    <t>Nessus Scan Information (Credentialed Scan - Credentialed Text)</t>
+  </si>
+  <si>
+    <t>Tenable Security Center Filter: Vulnerability Text
+Contains “Credentialed checks : yes”
+Tenable Vulnerability Management Filter: Plugin Output
+Contains “Credentialed checks : yes”</t>
+  </si>
+  <si>
+    <t>Nessus Launched Plugin List</t>
+  </si>
+  <si>
+    <t>Note: To use this plugin, you must enable the debug setting. For
+more information, see Advanced Settings in the Tenable
+Nessus User Guide.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Open Port Re-Check</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Update Reboot Required</t>
+  </si>
+  <si>
+    <t>SMB Registry: Start the Registry Service During the Scan</t>
+  </si>
+  <si>
+    <t>SMB Registry: Stop the Registry Service After the Scan</t>
+  </si>
+  <si>
+    <t>SMB Registry: Starting the Registry Service during the Scan
+Failed</t>
+  </si>
+  <si>
+    <t>SMB Registry : Stopping the Registry Service after the Scan Failed</t>
+  </si>
+  <si>
+    <t>Debugging Log Report</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>Vulnerabilities to Look For</t>
+  </si>
+  <si>
+    <t>Windows Service Pack Out-of-Date</t>
+  </si>
+  <si>
+    <t>Network Daemons Not Managed by the Package System</t>
+  </si>
+  <si>
+    <t>Malicious Process Detection</t>
+  </si>
+  <si>
+    <t>Agent Plugins</t>
+  </si>
+  <si>
+    <t>Tenable Windows Nessus Agent Installed</t>
+  </si>
+  <si>
+    <t>Tenable Nessus Agent Installed (Linux)</t>
+  </si>
+  <si>
+    <t>Tenable Nessus Agent Installed (macOS</t>
+  </si>
+  <si>
+    <t>System Information</t>
+  </si>
+  <si>
+    <t>HTTP Server Type and Version</t>
+  </si>
+  <si>
+    <t>Windows NetBIOS / SMB Remote Host Information
+Disclosure</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Shares Enumeration</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMB Shares Access</t>
+  </si>
+  <si>
+    <t>OS Identification</t>
+  </si>
+  <si>
+    <t>Host Fully Qualified Domain Name (FQDN) Resolution</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Installed Software Enumeration (Credentialed Check)</t>
+  </si>
+  <si>
+    <t>Network Interfaces Enumeration (WMI)</t>
+  </si>
+  <si>
+    <t>Enumerate IPv4 Interfaces via SSH</t>
+  </si>
+  <si>
+    <t>Remote Listeners Enumeration (Linux / AIX)</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Remote Listeners Enumeration (WMI)</t>
+  </si>
+  <si>
+    <t>Device Hostname</t>
+  </si>
+  <si>
+    <t>Netstat Connection Information</t>
+  </si>
+  <si>
+    <t>Patch Report</t>
+  </si>
+  <si>
+    <t>Docker Service Detection</t>
+  </si>
+  <si>
+    <t>Note: To use this plugin, you must enable the debug setting.
+For more information, see Advanced Settings in the Tenable
+Nessus User Guide.</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>ACAS</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Common Platform Enumeration (CPE)</t>
+  </si>
+  <si>
+    <t>Note: In the Tenable Nessus interface, enable the Hide results from plugins initiated as a dependency
+option to ensure IPs do not count toward your license if they are scanned with one of the following plugins.
+For more information, see Report Scan Settings in the Tenable Nessus User Guide.</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host Fully Qualified Domain Name (FQDN) Resolution </t>
+  </si>
+  <si>
+    <t>Traceroute Information</t>
+  </si>
+  <si>
+    <t>Service Detection</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Do not Scan Printers</t>
+  </si>
+  <si>
+    <t>Host Tagging</t>
+  </si>
+  <si>
+    <t>Port Scanners Settings</t>
+  </si>
+  <si>
+    <t>Port Scanner Dependency</t>
+  </si>
+  <si>
+    <t>Nessus Launches Plugin List</t>
+  </si>
+  <si>
+    <t>Note: To use this plugin, you must enable the debug
+setting. For more information, see Advanced Settings in the
+Tenable Nessus User Guide</t>
+  </si>
+  <si>
+    <t>Configurations Settings</t>
+  </si>
+  <si>
+    <t>Port Scanners</t>
+  </si>
+  <si>
+    <t>Ping the Remote Host</t>
+  </si>
+  <si>
+    <t>Nessus TCP Scanner</t>
+  </si>
+  <si>
+    <t>Nessus SYN Scanner</t>
+  </si>
+  <si>
+    <t>Netstat Portscanner (SSH)</t>
+  </si>
+  <si>
+    <t>Nessus SNMP Scanner</t>
+  </si>
+  <si>
+    <t>Netstat Portscanner (WMI)</t>
+  </si>
+  <si>
+    <t>Nessus UDP Scanner</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NNM</t>
+  </si>
+  <si>
+    <t>Open Port</t>
+  </si>
+  <si>
+    <t>Host TTL Discovered</t>
+  </si>
+  <si>
+    <t>Generic Protocol Detection</t>
+  </si>
+  <si>
+    <t>VLAN ID Detection</t>
+  </si>
+  <si>
+    <t>Generic IPv6 Tunnel Traffic Detection</t>
+  </si>
+  <si>
+    <t>VXLAN ID Detection</t>
+  </si>
+  <si>
+    <t>Host Attribute Enumeration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -625,6 +1019,11 @@
       <color theme="1"/>
       <name val="Constantia"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -659,6 +1058,27 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -668,6 +1088,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -30242,4 +30666,3129 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="14">
+        <v>10394.0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10400.0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20811.0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="14">
+        <v>24269.0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12634.0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="14">
+        <v>22869.0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="14">
+        <v>27576.0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="14">
+        <v>110095.0</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="14">
+        <v>141118.0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="14">
+        <v>122502.0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="14">
+        <v>110095.0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="14">
+        <v>110723.0</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="14">
+        <v>104410.0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="14">
+        <v>110385.0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="14">
+        <v>117885.0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="14">
+        <v>122503.0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="14">
+        <v>21745.0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="14">
+        <v>24786.0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="14">
+        <v>10428.0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="14">
+        <v>26917.0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="14">
+        <v>91822.0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="14">
+        <v>11149.0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="14">
+        <v>21745.0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="14">
+        <v>19506.0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="14">
+        <v>112154.0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="14">
+        <v>10919.0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="14">
+        <v>35453.0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="14">
+        <v>35703.0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="14">
+        <v>35704.0</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="14">
+        <v>35705.0</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="14">
+        <v>35706.0</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="14">
+        <v>84239.0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="14">
+        <v>26921.0</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="14">
+        <v>33851.0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="14">
+        <v>59275.0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="14">
+        <v>100574.0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="14">
+        <v>110230.0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="14">
+        <v>110231.0</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="14">
+        <v>10107.0</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="14">
+        <v>10150.0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="14">
+        <v>10395.0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="14">
+        <v>10396.0</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="14">
+        <v>11936.0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="14">
+        <v>12053.0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="14">
+        <v>20811.0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="14">
+        <v>24272.0</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25203.0</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25221.0</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="14">
+        <v>34252.0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="14">
+        <v>35453.0</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="14">
+        <v>55472.0</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="14">
+        <v>64582.0</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="14">
+        <v>66334.0</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="14">
+        <v>93561.0</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="14">
+        <v>112154.0</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="14">
+        <v>45590.0</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="14">
+        <v>54615.0</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="14">
+        <v>12053.0</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="14">
+        <v>11936.0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="14">
+        <v>10287.0</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="14">
+        <v>22964.0</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="14">
+        <v>11933.0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="14">
+        <v>87413.0</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="14">
+        <v>33812.0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="14">
+        <v>33813.0</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="14">
+        <v>112154.0</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="14">
+        <v>10180.0</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="14">
+        <v>10335.0</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="14">
+        <v>11219.0</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="14">
+        <v>14272.0</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="14">
+        <v>14274.0</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="14">
+        <v>34220.0</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="14">
+        <v>34277.0</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="14">
+        <v>113.0</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" s="14">
+        <v>132.0</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>